--- a/Files/Template.xlsx
+++ b/Files/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakig\eclipse-workspace\PracticeJUnit5\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5785E97D-38FF-4A9D-AA84-E0114A1572BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E304E278-6F3B-45E6-8D73-F250F5F173E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9BAC928-8388-455E-88D9-C0CCBDDD9808}"/>
   </bookViews>
@@ -42,16 +42,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>Francisco4</t>
-  </si>
-  <si>
-    <t>Francisco6</t>
-  </si>
-  <si>
-    <t>Password10</t>
-  </si>
-  <si>
-    <t>Password22</t>
+    <t>FranciscoX</t>
+  </si>
+  <si>
+    <t>FranciscoY</t>
+  </si>
+  <si>
+    <t>PasswordX</t>
+  </si>
+  <si>
+    <t>PasswordY</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
